--- a/Governance-App/uploads/governance.xlsx
+++ b/Governance-App/uploads/governance.xlsx
@@ -14,17 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>_sa_instance_state</t>
   </si>
   <si>
+    <t>timestamp</t>
+  </si>
+  <si>
     <t>operation</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>auditid</t>
   </si>
   <si>
@@ -34,73 +34,37 @@
     <t>userName</t>
   </si>
   <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4564d2e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4564d3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4564d100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4564d1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4563bcd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4563b640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4563bd90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4563bf10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4563b3d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f4563bd60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f46024940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7f2f45674f10&gt;</t>
+    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7fb630af7970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7fb630af79a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x7fb630af7a60&gt;</t>
+  </si>
+  <si>
+    <t>17/06/202115:41:57</t>
+  </si>
+  <si>
+    <t>17/06/2021  15:42:35</t>
+  </si>
+  <si>
+    <t>17/06/2021  15:43:09</t>
+  </si>
+  <si>
+    <t>Turned off</t>
+  </si>
+  <si>
+    <t>Logged in</t>
   </si>
   <si>
     <t>Turned on</t>
   </si>
   <si>
-    <t>Turned off</t>
-  </si>
-  <si>
-    <t>16/06/2021</t>
-  </si>
-  <si>
-    <t>16/06/202120:17:58</t>
-  </si>
-  <si>
-    <t>16/06/202120:21:29</t>
-  </si>
-  <si>
-    <t>16/06/202120:29:07</t>
-  </si>
-  <si>
-    <t>16/06/202120:31:24</t>
-  </si>
-  <si>
-    <t>16/06/202120:33:33</t>
-  </si>
-  <si>
-    <t>16/06/202120:38:05</t>
-  </si>
-  <si>
     <t>ecommerce</t>
   </si>
   <si>
-    <t>fulfillment</t>
+    <t>Governance App</t>
   </si>
   <si>
     <t>admin</t>
@@ -461,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,19 +456,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -512,19 +476,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -532,199 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
